--- a/devops/UsingExclusionList.xlsx
+++ b/devops/UsingExclusionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbyrd/Documents/DbMaestro/dev/dbm_demo/devops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD187B89-5E3A-464D-B274-4220199F2D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77535877-0F17-4B4E-8E88-D8A6F6156CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{D2CA5856-CE53-C543-AEEF-04DBA3C79BCB}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{D2CA5856-CE53-C543-AEEF-04DBA3C79BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t xml:space="preserve"> OBJECT_TYPE</t>
   </si>
   <si>
-    <t>multi_tsk</t>
-  </si>
-  <si>
     <t>COUNTRY_C_ID_PK</t>
   </si>
   <si>
@@ -114,18 +111,6 @@
   </si>
   <si>
     <t>SECURE_DML</t>
-  </si>
-  <si>
-    <t>DEPARTMENTS_SEQ</t>
-  </si>
-  <si>
-    <t>SEQUENCE</t>
-  </si>
-  <si>
-    <t>EMPLOYEES_SEQ</t>
-  </si>
-  <si>
-    <t>LOCATIONS_SEQ</t>
   </si>
   <si>
     <t>COUNTRIES</t>
@@ -198,17 +183,33 @@
     <t>Fill in the object information in the grid on the exclusion list tab.  You can get a list of the objects in your schema by using:
   dbm_api.bat action=schema_objects schema_name=multi_tsk output_path=c:\automation
 this will create a csv file of all the objects and object types from the passed schema
+(Note: you may need to: grant select on DBA_OBJECTS to twmanagedb)
 Then save the file.  Save_As the file again in CSV format
 Run the dbm_api.bat script like this:
   dbm_api.bat action=exclusion_list file_name=&lt;path_to_csv_file&gt;
 This will populate the database table TWMANAGEDB.TBL_SMG_EXCLUDE_OBJECTS.</t>
+  </si>
+  <si>
+    <t>HR_QA_2</t>
+  </si>
+  <si>
+    <t>TESTIMPORT</t>
+  </si>
+  <si>
+    <t>DEPT_VW</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>EMP_DETAILS_VIEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +233,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,8 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C566045-5352-E84F-9584-36FB0B8956C2}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +705,7 @@
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -825,12 +837,12 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1005,7 +1017,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,365 +1039,365 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1397,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44B7C3B-D6FF-4A48-8DA4-67E262F82DA4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,33 +1425,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1452,14 +1464,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1472,14 +1484,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1492,6 +1504,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="HR_QA_@" xr:uid="{A8A4E588-41B4-6440-AC3D-B0CDDAA449C1}"/>
+    <hyperlink ref="A3:A4" r:id="rId2" display="HR_QA_@" xr:uid="{2C496F2F-AA44-224E-99DA-229F872FD2B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>